--- a/data/GUERRERO FAREZ FABIAN MAURICIO.xlsx
+++ b/data/GUERRERO FAREZ FABIAN MAURICIO.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet name="VENTAS POR GRUPO" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="VENTA MENSUAL" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="CUMPLIMIENTO MENSUAL" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -64,14 +65,14 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -2936,62 +2937,62 @@
       </c>
     </row>
     <row r="52">
-      <c r="C52" s="4" t="inlineStr">
+      <c r="C52" s="3" t="inlineStr">
         <is>
           <t>0 de 50</t>
         </is>
       </c>
-      <c r="D52" s="4" t="inlineStr">
+      <c r="D52" s="3" t="inlineStr">
         <is>
           <t>0 de 50</t>
         </is>
       </c>
-      <c r="E52" s="4" t="inlineStr">
+      <c r="E52" s="3" t="inlineStr">
         <is>
           <t>0 de 50</t>
         </is>
       </c>
-      <c r="F52" s="4" t="inlineStr">
+      <c r="F52" s="3" t="inlineStr">
         <is>
           <t>0 de 50</t>
         </is>
       </c>
-      <c r="G52" s="4" t="inlineStr">
+      <c r="G52" s="3" t="inlineStr">
         <is>
           <t>0 de 50</t>
         </is>
       </c>
-      <c r="H52" s="4" t="inlineStr">
+      <c r="H52" s="3" t="inlineStr">
         <is>
           <t>0 de 50</t>
         </is>
       </c>
-      <c r="I52" s="4" t="inlineStr">
+      <c r="I52" s="3" t="inlineStr">
         <is>
           <t>0 de 50</t>
         </is>
       </c>
-      <c r="J52" s="4" t="inlineStr">
+      <c r="J52" s="3" t="inlineStr">
         <is>
           <t>0 de 50</t>
         </is>
       </c>
-      <c r="K52" s="4" t="inlineStr">
+      <c r="K52" s="3" t="inlineStr">
         <is>
           <t>0 de 50</t>
         </is>
       </c>
-      <c r="L52" s="4" t="inlineStr">
+      <c r="L52" s="3" t="inlineStr">
         <is>
           <t>1 de 50</t>
         </is>
       </c>
-      <c r="M52" s="4" t="inlineStr">
+      <c r="M52" s="3" t="inlineStr">
         <is>
           <t>0 de 50</t>
         </is>
       </c>
-      <c r="N52" s="4" t="inlineStr">
+      <c r="N52" s="3" t="inlineStr">
         <is>
           <t>0 de 50</t>
         </is>
@@ -3113,7 +3114,7 @@
         <v>0</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -3140,7 +3141,7 @@
         <v>2575.35</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>10000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -3167,7 +3168,7 @@
         <v>-19.85</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -3194,7 +3195,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -3221,7 +3222,7 @@
         <v>0</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -3248,7 +3249,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -3302,7 +3303,7 @@
         <v>0</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -3329,7 +3330,7 @@
         <v>0</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -3383,7 +3384,7 @@
         <v>0</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -3410,7 +3411,7 @@
         <v>-25.66</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -3437,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>3000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -3464,7 +3465,7 @@
         <v>0</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -3518,7 +3519,7 @@
         <v>0</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -3545,7 +3546,7 @@
         <v>0</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -3680,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>15000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -3707,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -3761,7 +3762,7 @@
         <v>0</v>
       </c>
       <c r="G27" s="2" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -3788,7 +3789,7 @@
         <v>0</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -3815,7 +3816,7 @@
         <v>0</v>
       </c>
       <c r="G29" s="2" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -3842,7 +3843,7 @@
         <v>0</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -3869,7 +3870,7 @@
         <v>0</v>
       </c>
       <c r="G31" s="2" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3923,7 +3924,7 @@
         <v>0</v>
       </c>
       <c r="G33" s="2" t="n">
-        <v>8000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3950,7 +3951,7 @@
         <v>0</v>
       </c>
       <c r="G34" s="2" t="n">
-        <v>5000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3977,7 +3978,7 @@
         <v>0</v>
       </c>
       <c r="G35" s="2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -4058,7 +4059,7 @@
         <v>0</v>
       </c>
       <c r="G38" s="2" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -4085,7 +4086,7 @@
         <v>0</v>
       </c>
       <c r="G39" s="2" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -4112,7 +4113,7 @@
         <v>0</v>
       </c>
       <c r="G40" s="2" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -4220,7 +4221,7 @@
         <v>0</v>
       </c>
       <c r="G44" s="2" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4247,7 +4248,7 @@
         <v>0</v>
       </c>
       <c r="G45" s="2" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4274,7 +4275,7 @@
         <v>0</v>
       </c>
       <c r="G46" s="2" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -4301,7 +4302,7 @@
         <v>0</v>
       </c>
       <c r="G47" s="2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -4382,7 +4383,7 @@
         <v>0</v>
       </c>
       <c r="G50" s="2" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -4413,20 +4414,506 @@
       </c>
     </row>
     <row r="52">
-      <c r="C52" s="6" t="n">
+      <c r="C52" s="4" t="n">
         <v>96431.17</v>
       </c>
-      <c r="D52" s="6" t="n">
+      <c r="D52" s="4" t="n">
         <v>62096</v>
       </c>
-      <c r="E52" s="6" t="n">
+      <c r="E52" s="4" t="n">
         <v>97690.81999999999</v>
       </c>
-      <c r="F52" s="6" t="n">
+      <c r="F52" s="4" t="n">
         <v>2529.84</v>
       </c>
-      <c r="G52" s="6" t="n">
-        <v>74800</v>
+      <c r="G52" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="32" customWidth="1" min="1" max="1"/>
+    <col width="22" customWidth="1" min="2" max="2"/>
+    <col width="22" customWidth="1" min="3" max="3"/>
+    <col width="13" customWidth="1" min="4" max="4"/>
+    <col width="22" customWidth="1" min="5" max="5"/>
+    <col width="25" customWidth="1" min="6" max="6"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ASESOR</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>GRUPO</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PRESUPUESTO</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>VENTA</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>POR CUMPLIR</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>CUMPLIMIENTO</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>GUERRERO FAREZ FABIAN MAURICIO</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>240X120 PORCELANATO</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>9970.34304517915</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>9970.34304517915</v>
+      </c>
+      <c r="F2" s="5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>GUERRERO FAREZ FABIAN MAURICIO</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>240X80 PORCELANATO</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>27457.0076</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>27457.0076</v>
+      </c>
+      <c r="F3" s="5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>GUERRERO FAREZ FABIAN MAURICIO</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>FREGADEROS DE COCINA</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>1003</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>1003</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>GUERRERO FAREZ FABIAN MAURICIO</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>GRANITO</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>238.32</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>238.32</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>GUERRERO FAREZ FABIAN MAURICIO</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>GRIFERIAS</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>106.82</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>106.82</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>GUERRERO FAREZ FABIAN MAURICIO</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>INODOROS</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>1400</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>1400</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>GUERRERO FAREZ FABIAN MAURICIO</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>LAVABOS</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>GUERRERO FAREZ FABIAN MAURICIO</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>LED</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="n">
+        <v>300</v>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2" t="n">
+        <v>300</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>GUERRERO FAREZ FABIAN MAURICIO</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>NO RESURTIBLES</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>1300.5</v>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2" t="n">
+        <v>1300.5</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>GUERRERO FAREZ FABIAN MAURICIO</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>OTROS</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>GUERRERO FAREZ FABIAN MAURICIO</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>PANELES DECORATIVOS</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="n">
+        <v>350</v>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2" t="n">
+        <v>350</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>GUERRERO FAREZ FABIAN MAURICIO</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>PANELES PU</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="n">
+        <v>230</v>
+      </c>
+      <c r="D13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" s="2" t="n">
+        <v>230</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>GUERRERO FAREZ FABIAN MAURICIO</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>PANELES PVC</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="n">
+        <v>966</v>
+      </c>
+      <c r="D14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" s="2" t="n">
+        <v>966</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>GUERRERO FAREZ FABIAN MAURICIO</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>PIEDRA SINTERIZADA</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="n">
+        <v>13500</v>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" s="2" t="n">
+        <v>13500</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>GUERRERO FAREZ FABIAN MAURICIO</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>PORCELANATO</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="n">
+        <v>32741.45</v>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>2529.84</v>
+      </c>
+      <c r="E16" s="2" t="n">
+        <v>30211.61</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>0.07726719494707779</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>GUERRERO FAREZ FABIAN MAURICIO</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>PUERTAS DE SEGURIDAD</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="n">
+        <v>684</v>
+      </c>
+      <c r="D17" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" s="2" t="n">
+        <v>684</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>GUERRERO FAREZ FABIAN MAURICIO</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>SAL SOLUBLE</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="n">
+        <v>3200</v>
+      </c>
+      <c r="D18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" s="2" t="n">
+        <v>3200</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" s="6" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="n">
+        <v>94447.44064517914</v>
+      </c>
+      <c r="D19" s="2" t="n">
+        <v>2529.84</v>
+      </c>
+      <c r="E19" s="2" t="n">
+        <v>91917.60064517915</v>
+      </c>
+      <c r="F19" s="5" t="n">
+        <v>0.02678569141438276</v>
       </c>
     </row>
   </sheetData>
